--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_17_b.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_17_b.xlsx
@@ -84,7 +84,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_jesica")] Hold on a bit longer, Beagle! …I'll go take care of that new enemy!
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_jesica")] Hold on a bit longer, Beagle! ...I'll go take care of that new enemy!
 </t>
   </si>
   <si>
